--- a/2014/Getränke/Verbrauch 2013.xlsx
+++ b/2014/Getränke/Verbrauch 2013.xlsx
@@ -1989,10 +1989,10 @@
   <dimension ref="A1:AB104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D75" sqref="D75:E75"/>
+      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
